--- a/patient_data/patient_22.xlsx
+++ b/patient_data/patient_22.xlsx
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -903,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -980,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1040,13 +1040,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1182,10 +1182,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1194,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1241,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1318,10 +1318,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1395,10 +1395,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1472,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1549,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
